--- a/Cronograma y asignaciones/Cronograma_Asignaciones.xlsx
+++ b/Cronograma y asignaciones/Cronograma_Asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnnxl\OneDrive\Documentos\GitHub\Proyecto-2-Bases-de-datos-II\Cronograma y asignaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AF8DD99-CB7E-4106-B8E9-CE22C1378B04}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D44D5E3-9914-4C96-AF16-AD736472588D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{9AF3E273-93AB-40A9-B8B0-4B6D42ADC252}"/>
   </bookViews>
@@ -34,9 +34,6 @@
   </si>
   <si>
     <t xml:space="preserve">Revisión de avance </t>
-  </si>
-  <si>
-    <t>Miércoles</t>
   </si>
   <si>
     <t>Diagrama relacional-objeto</t>
@@ -208,10 +205,13 @@
     <t>Actividad 1 y 2</t>
   </si>
   <si>
-    <t>Actividad 3 y 4</t>
-  </si>
-  <si>
-    <t>Actividad 5, 6 y 8</t>
+    <t>Actividad 3 y 4, Un 50 %</t>
+  </si>
+  <si>
+    <t>Actividad 5, 6 y 8, 3 y 4 (Terminado)</t>
+  </si>
+  <si>
+    <t>Viernes</t>
   </si>
 </sst>
 </file>
@@ -463,67 +463,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -533,13 +536,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -859,7 +859,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,148 +881,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="H1" s="12" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="H1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="13"/>
-      <c r="J1" s="14"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="6"/>
+      <c r="H3" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="20"/>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="11"/>
+      <c r="H4" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="28"/>
+      <c r="J4" s="20"/>
       <c r="K4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="20"/>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
+      <c r="H5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="28"/>
+      <c r="J5" s="20"/>
       <c r="K5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="20"/>
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
+      <c r="H6" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="28"/>
+      <c r="J6" s="20"/>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="7"/>
+      <c r="H7" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" s="28"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="4"/>
+      <c r="A8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="36"/>
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="8"/>
+      <c r="H8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="28"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1030,18 +1030,18 @@
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
+      <c r="H9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="28"/>
+      <c r="J9" s="20"/>
       <c r="K9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1049,160 +1049,160 @@
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="6"/>
+      <c r="H10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="28"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="7"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="8"/>
+      <c r="B13" s="6"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G14" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="33"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="23" t="s">
+      <c r="G14" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.7">
+      <c r="A15" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="12"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="9"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G16" s="14">
+        <v>1</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="L14" s="23"/>
-      <c r="M14" s="21"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.7">
-      <c r="A15" s="3" t="s">
+      <c r="L16" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" s="9"/>
+    </row>
+    <row r="17" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="14">
         <v>2</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="18" t="s">
+      <c r="H17" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="5"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="9"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="14">
         <v>3</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="28"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="20"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G16" s="30">
+      <c r="H18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5"/>
+      <c r="J18" s="20">
         <v>1</v>
       </c>
-      <c r="H16" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="22" t="s">
+      <c r="K18" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="M16" s="20"/>
-    </row>
-    <row r="17" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="30">
-        <v>2</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="20"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="30">
-        <v>3</v>
-      </c>
-      <c r="H18" s="31" t="s">
+      <c r="L18" s="30"/>
+      <c r="M18" s="9"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="14">
+        <v>4</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="11">
-        <v>1</v>
-      </c>
-      <c r="K18" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" s="35"/>
-      <c r="M18" s="20"/>
-    </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="30">
-        <v>4</v>
-      </c>
-      <c r="H19" s="31" t="s">
+      <c r="I19" s="5"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="9"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="14">
+        <v>5</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="20"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="30">
-        <v>5</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="20"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -1211,231 +1211,250 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="30">
+      <c r="G21" s="14">
         <v>6</v>
       </c>
-      <c r="H21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="11">
+      <c r="H21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I21" s="5"/>
+      <c r="J21" s="20">
         <v>2</v>
       </c>
-      <c r="K21" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="L21" s="27"/>
-      <c r="M21" s="20"/>
+      <c r="K21" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="17"/>
+      <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="30">
+      <c r="G22" s="14">
         <v>7</v>
       </c>
-      <c r="H22" s="31" t="s">
+      <c r="H22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="5"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="9"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G23" s="14">
+        <v>8</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="20"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G23" s="30">
-        <v>8</v>
-      </c>
-      <c r="H23" s="31" t="s">
+      <c r="I23" s="6"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="9"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G24" s="14">
+        <v>9</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="20"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G24" s="30">
-        <v>9</v>
-      </c>
-      <c r="H24" s="31" t="s">
+      <c r="I24" s="6"/>
+      <c r="J24" s="20">
+        <v>3</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="18"/>
+      <c r="M24" s="9"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G25" s="14">
+        <v>10</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="11">
-        <v>3</v>
-      </c>
-      <c r="K24" s="24" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="9"/>
+    </row>
+    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G26" s="14">
+        <v>11</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="9"/>
+    </row>
+    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G27" s="14">
+        <v>12</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I27" s="6"/>
+      <c r="J27" s="20">
+        <v>4</v>
+      </c>
+      <c r="K27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="L24" s="25"/>
-      <c r="M24" s="20"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G25" s="30">
-        <v>10</v>
-      </c>
-      <c r="H25" s="31" t="s">
+      <c r="L27" s="17"/>
+      <c r="M27" s="9"/>
+    </row>
+    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G28" s="14">
+        <v>13</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" s="6"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="9"/>
+    </row>
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G29" s="14">
+        <v>14</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="20"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="9"/>
+    </row>
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G30" s="14">
+        <v>15</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="20">
+        <v>5</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="19"/>
+      <c r="M30" s="9"/>
+    </row>
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G31" s="14">
+        <v>16</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="20"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G26" s="30">
-        <v>11</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" s="8"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="20"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G27" s="30">
-        <v>12</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="8"/>
-      <c r="J27" s="11">
-        <v>4</v>
-      </c>
-      <c r="K27" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="L27" s="27"/>
-      <c r="M27" s="20"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G28" s="30">
-        <v>13</v>
-      </c>
-      <c r="H28" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="8"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="20"/>
-    </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G29" s="30">
-        <v>14</v>
-      </c>
-      <c r="H29" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="8"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="20"/>
-    </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G30" s="30">
-        <v>15</v>
-      </c>
-      <c r="H30" s="31" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="9"/>
+    </row>
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G32" s="14">
+        <v>17</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="9"/>
+    </row>
+    <row r="33" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G33" s="14">
+        <v>18</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="4"/>
+    </row>
+    <row r="34" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G34" s="14">
+        <v>19</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I34" s="4"/>
+    </row>
+    <row r="35" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G35" s="14">
+        <v>20</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I35" s="4"/>
+    </row>
+    <row r="36" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G36" s="14">
+        <v>21</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I36" s="4"/>
+    </row>
+    <row r="37" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="G37" s="14">
+        <v>22</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I30" s="6"/>
-      <c r="J30" s="11">
-        <v>5</v>
-      </c>
-      <c r="K30" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="L30" s="26"/>
-      <c r="M30" s="20"/>
-    </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G31" s="30">
-        <v>16</v>
-      </c>
-      <c r="H31" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="I31" s="6"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="20"/>
-    </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G32" s="30">
-        <v>17</v>
-      </c>
-      <c r="H32" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="20"/>
-    </row>
-    <row r="33" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G33" s="30">
-        <v>18</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G34" s="30">
-        <v>19</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G35" s="30">
-        <v>20</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G36" s="30">
-        <v>21</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G37" s="30">
-        <v>22</v>
-      </c>
-      <c r="H37" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="I37" s="6"/>
+      <c r="I37" s="4"/>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H1:J2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="A18:F20"/>
     <mergeCell ref="L21:L23"/>
     <mergeCell ref="L24:L26"/>
@@ -1449,26 +1468,7 @@
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="J27:J29"/>
     <mergeCell ref="J30:J32"/>
-    <mergeCell ref="H1:J2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K18:K20"/>
     <mergeCell ref="L27:L29"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H6:J6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Cronograma y asignaciones/Cronograma_Asignaciones.xlsx
+++ b/Cronograma y asignaciones/Cronograma_Asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnnxl\OneDrive\Documentos\GitHub\Proyecto-2-Bases-de-datos-II\Cronograma y asignaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D44D5E3-9914-4C96-AF16-AD736472588D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7162139-EC5B-415A-9F43-DD64322159A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{9AF3E273-93AB-40A9-B8B0-4B6D42ADC252}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="58">
   <si>
     <t>Cronograma de actividades</t>
   </si>
@@ -212,6 +212,15 @@
   </si>
   <si>
     <t>Viernes</t>
+  </si>
+  <si>
+    <t>1, Termina 20/04/18</t>
+  </si>
+  <si>
+    <t>2, Termina 27/04/18</t>
+  </si>
+  <si>
+    <t>3, Hasta la entrega</t>
   </si>
 </sst>
 </file>
@@ -476,9 +485,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -486,60 +549,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -881,30 +890,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="H1" s="21" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="H1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -918,78 +927,78 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>1</v>
-      </c>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="20"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
       <c r="K4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>2</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="A5" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="20"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
       <c r="K5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="27" t="s">
+      <c r="A6" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="20"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="28"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
       <c r="K6" t="s">
         <v>49</v>
       </c>
@@ -998,31 +1007,31 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="33"/>
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="28"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1030,11 +1039,11 @@
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9" s="27" t="s">
+      <c r="H9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="28"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
       <c r="K9" t="s">
         <v>47</v>
       </c>
@@ -1049,11 +1058,11 @@
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1078,24 +1087,24 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="35"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="29" t="s">
+      <c r="K14" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="29"/>
+      <c r="L14" s="26"/>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.7">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1142,14 +1151,14 @@
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="14">
         <v>3</v>
       </c>
@@ -1157,22 +1166,22 @@
         <v>16</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="20">
+      <c r="J18" s="18">
         <v>1</v>
       </c>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="30"/>
+      <c r="L18" s="27"/>
       <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="14">
         <v>4</v>
       </c>
@@ -1180,18 +1189,18 @@
         <v>17</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="16"/>
-      <c r="L19" s="31"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="28"/>
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="14">
         <v>5</v>
       </c>
@@ -1199,9 +1208,9 @@
         <v>18</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="32"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="29"/>
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1218,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="20">
+      <c r="J21" s="18">
         <v>2</v>
       </c>
-      <c r="K21" s="16" t="s">
+      <c r="K21" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="17"/>
+      <c r="L21" s="35"/>
       <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1238,9 +1247,9 @@
         <v>20</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="17"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="35"/>
       <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1251,9 +1260,9 @@
         <v>21</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="17"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="35"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1264,13 +1273,13 @@
         <v>22</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="20">
+      <c r="J24" s="18">
         <v>3</v>
       </c>
-      <c r="K24" s="16" t="s">
+      <c r="K24" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="18"/>
+      <c r="L24" s="36"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1281,9 +1290,9 @@
         <v>23</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="36"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1294,9 +1303,9 @@
         <v>34</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="36"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1307,13 +1316,13 @@
         <v>35</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="20">
+      <c r="J27" s="18">
         <v>4</v>
       </c>
-      <c r="K27" s="16" t="s">
+      <c r="K27" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="17"/>
+      <c r="L27" s="35"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1324,9 +1333,9 @@
         <v>33</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="35"/>
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1337,9 +1346,9 @@
         <v>30</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="17"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="35"/>
       <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1350,13 +1359,13 @@
         <v>31</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="20">
+      <c r="J30" s="18">
         <v>5</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="K30" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="19"/>
+      <c r="L30" s="37"/>
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1367,9 +1376,9 @@
         <v>24</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="19"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="37"/>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1380,9 +1389,9 @@
         <v>25</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="16"/>
-      <c r="L32" s="19"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="25"/>
+      <c r="L32" s="37"/>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1436,6 +1445,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="J27:J29"/>
+    <mergeCell ref="J30:J32"/>
+    <mergeCell ref="L27:L29"/>
+    <mergeCell ref="L21:L23"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="L30:L32"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="K27:K29"/>
+    <mergeCell ref="K30:K32"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A18:F20"/>
+    <mergeCell ref="J18:J20"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="H6:J6"/>
@@ -1443,32 +1473,11 @@
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A8:B9"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="H3:J3"/>
     <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A18:F20"/>
-    <mergeCell ref="L21:L23"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="L30:L32"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="K27:K29"/>
-    <mergeCell ref="K30:K32"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="J27:J29"/>
-    <mergeCell ref="J30:J32"/>
-    <mergeCell ref="L27:L29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Cronograma y asignaciones/Cronograma_Asignaciones.xlsx
+++ b/Cronograma y asignaciones/Cronograma_Asignaciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnnxl\OneDrive\Documentos\GitHub\Proyecto-2-Bases-de-datos-II\Cronograma y asignaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7162139-EC5B-415A-9F43-DD64322159A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4769F-F353-4AB4-8B1D-87A63B814800}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{9AF3E273-93AB-40A9-B8B0-4B6D42ADC252}"/>
   </bookViews>
@@ -485,31 +485,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -542,13 +527,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +868,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G14" sqref="G14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,30 +890,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="H1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="20"/>
-      <c r="J1" s="21"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="24"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="37"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -927,32 +927,32 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="16"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="18"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="16"/>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="16"/>
       <c r="K4" t="s">
         <v>47</v>
       </c>
@@ -961,21 +961,21 @@
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="16"/>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="16"/>
       <c r="K5" t="s">
         <v>48</v>
       </c>
@@ -984,21 +984,21 @@
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="30" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="16"/>
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="18"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="16"/>
       <c r="K6" t="s">
         <v>49</v>
       </c>
@@ -1007,31 +1007,31 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="16"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="28"/>
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="16"/>
       <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1039,11 +1039,11 @@
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="18"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="16"/>
       <c r="K9" t="s">
         <v>47</v>
       </c>
@@ -1058,11 +1058,11 @@
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="18"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="16"/>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -1087,24 +1087,24 @@
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G14" s="30" t="s">
+      <c r="G14" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="32"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="26" t="s">
+      <c r="K14" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="26"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="10"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.7">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="7" t="s">
         <v>54</v>
       </c>
@@ -1151,14 +1151,14 @@
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="14">
         <v>3</v>
       </c>
@@ -1166,22 +1166,22 @@
         <v>16</v>
       </c>
       <c r="I18" s="5"/>
-      <c r="J18" s="18">
+      <c r="J18" s="16">
         <v>1</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="27"/>
+      <c r="L18" s="22"/>
       <c r="M18" s="9"/>
     </row>
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="14">
         <v>4</v>
       </c>
@@ -1189,18 +1189,18 @@
         <v>17</v>
       </c>
       <c r="I19" s="5"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="28"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="23"/>
       <c r="M19" s="9"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="14">
         <v>5</v>
       </c>
@@ -1208,9 +1208,9 @@
         <v>18</v>
       </c>
       <c r="I20" s="5"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="29"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="9"/>
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1227,13 +1227,13 @@
         <v>19</v>
       </c>
       <c r="I21" s="5"/>
-      <c r="J21" s="18">
+      <c r="J21" s="16">
         <v>2</v>
       </c>
-      <c r="K21" s="25" t="s">
+      <c r="K21" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="L21" s="35"/>
+      <c r="L21" s="17"/>
       <c r="M21" s="9"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1247,9 +1247,9 @@
         <v>20</v>
       </c>
       <c r="I22" s="5"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="25"/>
-      <c r="L22" s="35"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="17"/>
       <c r="M22" s="9"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1260,9 +1260,9 @@
         <v>21</v>
       </c>
       <c r="I23" s="6"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="25"/>
-      <c r="L23" s="35"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="17"/>
       <c r="M23" s="9"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1273,13 +1273,13 @@
         <v>22</v>
       </c>
       <c r="I24" s="6"/>
-      <c r="J24" s="18">
+      <c r="J24" s="16">
         <v>3</v>
       </c>
-      <c r="K24" s="25" t="s">
+      <c r="K24" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="36"/>
+      <c r="L24" s="18"/>
       <c r="M24" s="9"/>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1290,9 +1290,9 @@
         <v>23</v>
       </c>
       <c r="I25" s="6"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="36"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="18"/>
       <c r="M25" s="9"/>
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1303,9 +1303,9 @@
         <v>34</v>
       </c>
       <c r="I26" s="6"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="36"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="18"/>
       <c r="M26" s="9"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1316,13 +1316,13 @@
         <v>35</v>
       </c>
       <c r="I27" s="6"/>
-      <c r="J27" s="18">
+      <c r="J27" s="16">
         <v>4</v>
       </c>
-      <c r="K27" s="25" t="s">
+      <c r="K27" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="L27" s="35"/>
+      <c r="L27" s="17"/>
       <c r="M27" s="9"/>
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1333,9 +1333,9 @@
         <v>33</v>
       </c>
       <c r="I28" s="6"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="35"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="20"/>
+      <c r="L28" s="17"/>
       <c r="M28" s="9"/>
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1346,9 +1346,9 @@
         <v>30</v>
       </c>
       <c r="I29" s="6"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="35"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="17"/>
       <c r="M29" s="9"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1359,13 +1359,13 @@
         <v>31</v>
       </c>
       <c r="I30" s="4"/>
-      <c r="J30" s="18">
+      <c r="J30" s="16">
         <v>5</v>
       </c>
-      <c r="K30" s="25" t="s">
+      <c r="K30" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="37"/>
+      <c r="L30" s="19"/>
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1376,9 +1376,9 @@
         <v>24</v>
       </c>
       <c r="I31" s="4"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="25"/>
-      <c r="L31" s="37"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="19"/>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -1389,9 +1389,9 @@
         <v>25</v>
       </c>
       <c r="I32" s="4"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="25"/>
-      <c r="L32" s="37"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="19"/>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -1445,6 +1445,27 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H1:J2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="A8:B9"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="A18:F20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
     <mergeCell ref="J21:J23"/>
     <mergeCell ref="J24:J26"/>
     <mergeCell ref="J27:J29"/>
@@ -1457,27 +1478,6 @@
     <mergeCell ref="K27:K29"/>
     <mergeCell ref="K30:K32"/>
     <mergeCell ref="K21:K23"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="L18:L20"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A8:B9"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A18:F20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H1:J2"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Cronograma y asignaciones/Cronograma_Asignaciones.xlsx
+++ b/Cronograma y asignaciones/Cronograma_Asignaciones.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnnxl\OneDrive\Documentos\GitHub\Proyecto-2-Bases-de-datos-II\Cronograma y asignaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esteb\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D4769F-F353-4AB4-8B1D-87A63B814800}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3A3A1616-2AD6-47B6-8130-5E249629A457}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{9AF3E273-93AB-40A9-B8B0-4B6D42ADC252}"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="23040" windowHeight="9060" xr2:uid="{9AF3E273-93AB-40A9-B8B0-4B6D42ADC252}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -294,13 +294,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,14 +468,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -485,13 +484,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -503,13 +497,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -549,6 +543,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -868,7 +871,7 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:I14"/>
+      <selection activeCell="A18" sqref="A18:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -890,30 +893,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="H1" s="32" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="H1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="34"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="32"/>
     </row>
     <row r="2" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="37"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="35"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -927,10 +930,10 @@
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="31"/>
+      <c r="I3" s="29"/>
       <c r="J3" s="16"/>
       <c r="K3" s="4"/>
     </row>
@@ -938,20 +941,20 @@
       <c r="A4" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="16"/>
       <c r="G4">
         <v>2</v>
       </c>
-      <c r="H4" s="30" t="s">
+      <c r="H4" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="31"/>
+      <c r="I4" s="29"/>
       <c r="J4" s="16"/>
       <c r="K4" t="s">
         <v>47</v>
@@ -961,20 +964,20 @@
       <c r="A5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="16"/>
       <c r="G5">
         <v>3</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="31"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="16"/>
       <c r="K5" t="s">
         <v>48</v>
@@ -984,20 +987,20 @@
       <c r="A6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="16"/>
       <c r="G6">
         <v>4</v>
       </c>
-      <c r="H6" s="30" t="s">
+      <c r="H6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="31"/>
+      <c r="I6" s="29"/>
       <c r="J6" s="16"/>
       <c r="K6" t="s">
         <v>49</v>
@@ -1007,31 +1010,31 @@
       <c r="G7">
         <v>5</v>
       </c>
-      <c r="H7" s="30" t="s">
+      <c r="H7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="31"/>
+      <c r="I7" s="29"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="5"/>
+      <c r="K7" s="15"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="26"/>
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="30" t="s">
+      <c r="H8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="31"/>
+      <c r="I8" s="29"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="6"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:13" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1039,10 +1042,10 @@
       <c r="G9">
         <v>7</v>
       </c>
-      <c r="H9" s="30" t="s">
+      <c r="H9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="31"/>
+      <c r="I9" s="29"/>
       <c r="J9" s="16"/>
       <c r="K9" t="s">
         <v>47</v>
@@ -1058,10 +1061,10 @@
       <c r="G10">
         <v>8</v>
       </c>
-      <c r="H10" s="30" t="s">
+      <c r="H10" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I10" s="31"/>
+      <c r="I10" s="29"/>
       <c r="J10" s="16"/>
       <c r="K10" s="4"/>
     </row>
@@ -1075,143 +1078,143 @@
       <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="5"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G14" s="25" t="s">
+      <c r="G14" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21" t="s">
+      <c r="H14" s="24"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L14" s="21"/>
-      <c r="M14" s="10"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="9"/>
     </row>
     <row r="15" spans="1:13" ht="30" x14ac:dyDescent="0.7">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="7" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="6" t="s">
         <v>54</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="11" t="s">
+      <c r="H15" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="12"/>
+      <c r="J15" s="11"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
-      <c r="M15" s="9"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>1</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="11" t="s">
+      <c r="I16" s="15"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M16" s="9"/>
+      <c r="M16" s="8"/>
     </row>
     <row r="17" spans="1:13" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>2</v>
       </c>
-      <c r="H17" s="15" t="s">
+      <c r="H17" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="13"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="3"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="9"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="8"/>
     </row>
     <row r="18" spans="1:13" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="14">
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="13">
         <v>3</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="5"/>
+      <c r="I18" s="15"/>
       <c r="J18" s="16">
         <v>1</v>
       </c>
-      <c r="K18" s="20" t="s">
+      <c r="K18" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="L18" s="22"/>
-      <c r="M18" s="9"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="8"/>
     </row>
     <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="14">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="13">
         <v>4</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I19" s="5"/>
+      <c r="I19" s="15"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="9"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="8"/>
     </row>
     <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="14">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="13">
         <v>5</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="5"/>
+      <c r="I20" s="15"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="9"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="8"/>
     </row>
     <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
@@ -1220,228 +1223,228 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>6</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I21" s="5"/>
+      <c r="I21" s="15"/>
       <c r="J21" s="16">
         <v>2</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="K21" s="18" t="s">
         <v>43</v>
       </c>
       <c r="L21" s="17"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="8"/>
     </row>
     <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>7</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="5"/>
+      <c r="I22" s="15"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="20"/>
+      <c r="K22" s="18"/>
       <c r="L22" s="17"/>
-      <c r="M22" s="9"/>
+      <c r="M22" s="8"/>
     </row>
     <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>8</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="I23" s="6"/>
+      <c r="I23" s="5"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="20"/>
+      <c r="K23" s="18"/>
       <c r="L23" s="17"/>
-      <c r="M23" s="9"/>
+      <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>9</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="6"/>
+      <c r="I24" s="5"/>
       <c r="J24" s="16">
         <v>3</v>
       </c>
-      <c r="K24" s="20" t="s">
+      <c r="K24" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L24" s="18"/>
-      <c r="M24" s="9"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="8"/>
     </row>
     <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>10</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="I25" s="5"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="9"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="8"/>
     </row>
     <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>11</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26" s="5"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="9"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="8"/>
     </row>
     <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>12</v>
       </c>
-      <c r="H27" s="15" t="s">
+      <c r="H27" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="I27" s="6"/>
+      <c r="I27" s="5"/>
       <c r="J27" s="16">
         <v>4</v>
       </c>
-      <c r="K27" s="20" t="s">
+      <c r="K27" s="18" t="s">
         <v>45</v>
       </c>
       <c r="L27" s="17"/>
-      <c r="M27" s="9"/>
+      <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>13</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I28" s="6"/>
+      <c r="I28" s="5"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="18"/>
       <c r="L28" s="17"/>
-      <c r="M28" s="9"/>
+      <c r="M28" s="8"/>
     </row>
     <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>14</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="I29" s="6"/>
+      <c r="I29" s="5"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="20"/>
+      <c r="K29" s="18"/>
       <c r="L29" s="17"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="8"/>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>15</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="14" t="s">
         <v>31</v>
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="16">
         <v>5</v>
       </c>
-      <c r="K30" s="20" t="s">
+      <c r="K30" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L30" s="19"/>
-      <c r="M30" s="9"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="8"/>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>16</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="14" t="s">
         <v>24</v>
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="9"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="8"/>
     </row>
     <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>17</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="14" t="s">
         <v>25</v>
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="9"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="38"/>
+      <c r="M32" s="8"/>
     </row>
     <row r="33" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>18</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="14" t="s">
         <v>26</v>
       </c>
       <c r="I33" s="4"/>
     </row>
     <row r="34" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>19</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="14" t="s">
         <v>27</v>
       </c>
       <c r="I34" s="4"/>
     </row>
     <row r="35" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>20</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="14" t="s">
         <v>28</v>
       </c>
       <c r="I35" s="4"/>
     </row>
     <row r="36" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>21</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="14" t="s">
         <v>29</v>
       </c>
       <c r="I36" s="4"/>
     </row>
     <row r="37" spans="7:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>22</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="14" t="s">
         <v>32</v>
       </c>
       <c r="I37" s="4"/>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.3">
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="33">
